--- a/NOVA_PRATA.xlsx
+++ b/NOVA_PRATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8DE0814-F1BC-46F6-AA03-54A25C249724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3131CA8-F305-4B28-BF93-BC1EADB0FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1113,7 +1100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1173,36 +1160,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,14 +1204,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,7 +1252,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{EDEA3E74-C09A-4EB2-97EF-F75E5B73BC72}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{41B1C4CD-8B66-4C22-944E-D87CF7A7DC25}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1324,10 +1282,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B86CC56-7260-4B6D-AD2F-508609911D6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4248D674-733E-401B-ABB3-C388F0C9E935}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1323,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67DB1EE-80D8-4265-9769-213F3CB057EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FC8F51-8A66-44F6-82DE-05B1DC033497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1386,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5DD755-1431-45FB-AD82-239606EF95F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE5BA66-546D-4B22-B13E-18C147D7F963}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1405,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E396E4-280B-8265-7995-FC7E59958C22}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE49CF64-A2EB-A1CF-8212-C145540D8571}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1496,7 +1454,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F48DAD8-EC06-E7D8-78F9-15D7CA92CB79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B286DFD4-80D3-5667-FDB3-DF51A48F32E9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1515,7 +1473,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3EB381-44D9-C628-0B34-CC61644373D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A73849E-45BA-AF8D-0749-0604F279DFB7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1546,7 +1504,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B994C04D-DA7F-4E80-F71E-B6041C94EBAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD606A5-72DE-4545-E686-3D331D3FFC78}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1577,7 +1535,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E076A734-F548-E375-023B-7BFD45BD752D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D389AD9E-06DA-E51D-0E62-9305554DCE01}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1620,7 +1578,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6D0D86-0CA9-4B85-ADE0-F278886BCB39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2218610-B2AB-469C-8241-9B225FE71247}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1616,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621063FC-B224-4317-8697-019C7B15ECB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E2E4F7-D8B0-420E-BAD1-9BC09A7CFCA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1659,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4DB30E-9E78-4961-BB3D-A46961198E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A201B95-1135-479F-8556-AE4B2BBD6BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3FAA2C-D51F-4174-BF0C-9391C8D9D7EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296B8C2C-4EA7-4F86-8C3E-E0511ABD9A93}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2026,98 +1984,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5635,19 +5593,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5670,46 +5628,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5734,54 +5692,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5792,43 +5751,43 @@
       <c r="B2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45108</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>3489</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>8924</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>1345</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>312</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>312</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5859,25 +5818,24 @@
       <c r="B1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="32">
         <v>81</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="35">
-        <v>81</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>5.3564343340827929E-3</v>
       </c>
     </row>

--- a/NOVA_PRATA.xlsx
+++ b/NOVA_PRATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3131CA8-F305-4B28-BF93-BC1EADB0FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD9D072-B5AB-41EB-8729-63CB75EE414C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1252,7 +1252,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{41B1C4CD-8B66-4C22-944E-D87CF7A7DC25}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{06A7E247-94BA-4571-9E8B-E382D9A0B6A7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,10 +1282,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4248D674-733E-401B-ABB3-C388F0C9E935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DEB77BD-F653-44D4-A908-796932DA2785}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1323,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FC8F51-8A66-44F6-82DE-05B1DC033497}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACB8DDE-65F9-4A44-BEE3-FE5A804982B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1386,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE5BA66-546D-4B22-B13E-18C147D7F963}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1BF05F-84CB-4FB7-8BDC-7BB4C3015DE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE49CF64-A2EB-A1CF-8212-C145540D8571}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A76180-7065-FCE6-D270-7EB387F68003}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1454,7 +1454,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B286DFD4-80D3-5667-FDB3-DF51A48F32E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FF9F7A-D2F2-82C4-851E-3C67EBFDB999}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1473,7 +1473,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A73849E-45BA-AF8D-0749-0604F279DFB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D527B9-DDC2-93F2-0942-6DD879C5E68C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD606A5-72DE-4545-E686-3D331D3FFC78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BADED1-B337-E3B5-41C1-404BD5ED1F14}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D389AD9E-06DA-E51D-0E62-9305554DCE01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{816F59B7-976E-E0A3-3B2E-AADC3C55FA45}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1578,7 +1578,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2218610-B2AB-469C-8241-9B225FE71247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77C3F11-2E25-4669-9D91-BE2723CCC3EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E2E4F7-D8B0-420E-BAD1-9BC09A7CFCA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9977D493-3997-4797-996A-B6C1895A8A1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1659,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A201B95-1135-479F-8556-AE4B2BBD6BC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1452D17-8E18-4E6F-86D3-FBA5CC43D632}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296B8C2C-4EA7-4F86-8C3E-E0511ABD9A93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2CE447-5D09-4191-9758-860D194B0404}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/NOVA_PRATA.xlsx
+++ b/NOVA_PRATA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD9D072-B5AB-41EB-8729-63CB75EE414C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66609461-7885-496A-9F00-82F828F941F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="315">
   <si>
     <t>COMARCA</t>
   </si>
@@ -971,15 +970,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>NOVA PRATA</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,27 +1222,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{06A7E247-94BA-4571-9E8B-E382D9A0B6A7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CEE3AD61-2D56-477C-B69F-2F7BCA7937ED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,10 +1257,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DEB77BD-F653-44D4-A908-796932DA2785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B90F15-1D79-4F05-8DAF-CBE7C846089B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1298,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACB8DDE-65F9-4A44-BEE3-FE5A804982B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD462EF-382A-4940-9626-57A3683AD918}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1BF05F-84CB-4FB7-8BDC-7BB4C3015DE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6DF674-185D-4F95-BEA7-E51C9A73C695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1380,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A76180-7065-FCE6-D270-7EB387F68003}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110871B7-BF1D-DF1D-3C50-E3A8874AB44F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1454,7 +1429,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FF9F7A-D2F2-82C4-851E-3C67EBFDB999}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CD6F6A-C5D6-14B9-A0A5-9B378E029C1C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1473,7 +1448,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D527B9-DDC2-93F2-0942-6DD879C5E68C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1BB2E3-E28B-71D3-6754-F4B7EF79A746}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1479,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BADED1-B337-E3B5-41C1-404BD5ED1F14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F03021A-6AE9-C8D6-7ECC-8D5F12D34A77}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,7 +1510,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{816F59B7-976E-E0A3-3B2E-AADC3C55FA45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FF50E1-D056-A619-DF74-BFD4B0EDB1E3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1578,7 +1553,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77C3F11-2E25-4669-9D91-BE2723CCC3EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2965E32B-0CEF-437F-8041-3A590385B813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1591,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9977D493-3997-4797-996A-B6C1895A8A1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EEEB7C-48B3-42F4-970B-0712F95F58CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1634,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1452D17-8E18-4E6F-86D3-FBA5CC43D632}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFF1E89-0B0D-4315-9C84-222BC5AC06B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2CE447-5D09-4191-9758-860D194B0404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76715EF4-80F2-48EA-B178-5307A76549A4}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1984,98 +1959,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5794,52 +5769,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="32">
-        <v>81</v>
-      </c>
-      <c r="C2" s="30">
-        <v>5.3564343340827929E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/NOVA_PRATA.xlsx
+++ b/NOVA_PRATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66609461-7885-496A-9F00-82F828F941F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B6E1BD-EEDD-44FE-97D9-A227F01FDD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1227,7 +1227,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CEE3AD61-2D56-477C-B69F-2F7BCA7937ED}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{51021E1D-4610-4080-ABE0-19B7C0C85CE9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1257,10 +1257,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B90F15-1D79-4F05-8DAF-CBE7C846089B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A168F5-0E3A-49E8-A501-E3E14E4E5F15}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1298,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD462EF-382A-4940-9626-57A3683AD918}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE2E4FB-EAD5-4C53-AD95-17FF6BD6B5FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6DF674-185D-4F95-BEA7-E51C9A73C695}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC29F0B5-99ED-45CD-BAA8-0D4804160B8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1380,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110871B7-BF1D-DF1D-3C50-E3A8874AB44F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F3CD13-A96B-5B35-1671-1BB37A99ADD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CD6F6A-C5D6-14B9-A0A5-9B378E029C1C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E4AA1B-E999-AD95-F1F9-24F167A75154}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1BB2E3-E28B-71D3-6754-F4B7EF79A746}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3056AEB1-E77D-F001-DEE4-FFD5388528E9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1479,7 +1479,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F03021A-6AE9-C8D6-7ECC-8D5F12D34A77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB80EAA-FBAE-414A-5E74-03D5EA58B723}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1510,7 +1510,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FF50E1-D056-A619-DF74-BFD4B0EDB1E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D47ACD3-E734-B890-D16E-EEEA3AF0F177}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2965E32B-0CEF-437F-8041-3A590385B813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83769316-0A89-4391-8D05-CCF593B4014B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1591,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EEEB7C-48B3-42F4-970B-0712F95F58CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07661F0A-2E92-4D64-9735-C08BB6E938AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,50 +1616,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFF1E89-0B0D-4315-9C84-222BC5AC06B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1947,7 +1903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76715EF4-80F2-48EA-B178-5307A76549A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135846D2-2480-46C2-97F4-02B2B3F0A26D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
